--- a/Stage I cluster&spatial autocorrelation/pinyin.xlsx
+++ b/Stage I cluster&spatial autocorrelation/pinyin.xlsx
@@ -1152,7 +1152,7 @@
         <v>-12964.46271929824</v>
       </c>
       <c r="H2">
-        <v>0.094</v>
+        <v>0.104</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>-14432.71271929824</v>
       </c>
       <c r="H3">
-        <v>0.066</v>
+        <v>0.075</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39381.78728070176</v>
       </c>
       <c r="H4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>31306.16228070176</v>
       </c>
       <c r="H5">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>-15246.96271929824</v>
       </c>
       <c r="H7">
-        <v>0.055</v>
+        <v>0.063</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>-7823.587719298244</v>
       </c>
       <c r="H8">
-        <v>0.23</v>
+        <v>0.237</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>-13550.08771929824</v>
       </c>
       <c r="H9">
-        <v>0.08400000000000001</v>
+        <v>0.094</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>8634.037280701756</v>
       </c>
       <c r="H10">
-        <v>0.22</v>
+        <v>0.213</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>7931.412280701756</v>
       </c>
       <c r="H11">
-        <v>0.234</v>
+        <v>0.223</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>14843.41228070176</v>
       </c>
       <c r="H12">
-        <v>0.097</v>
+        <v>0.082</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>12898.91228070176</v>
       </c>
       <c r="H13">
-        <v>0.114</v>
+        <v>0.096</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>27600.53728070176</v>
       </c>
       <c r="H15">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>39913.41228070176</v>
       </c>
       <c r="H16">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>13440.28728070176</v>
       </c>
       <c r="H17">
-        <v>0.118</v>
+        <v>0.109</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>16071.91228070176</v>
       </c>
       <c r="H18">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>31046.53728070176</v>
       </c>
       <c r="H19">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>11360.53728070176</v>
       </c>
       <c r="H20">
-        <v>0.147</v>
+        <v>0.152</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>965.1622807017557</v>
       </c>
       <c r="H21">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>-11928.33771929824</v>
       </c>
       <c r="H22">
-        <v>0.111</v>
+        <v>0.141</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>-12364.21271929824</v>
       </c>
       <c r="H23">
-        <v>0.094</v>
+        <v>0.119</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>5396.787280701756</v>
       </c>
       <c r="H24">
-        <v>0.308</v>
+        <v>0.291</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>470.5372807017557</v>
       </c>
       <c r="H25">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>13552.16228070176</v>
       </c>
       <c r="H26">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>22835.91228070176</v>
       </c>
       <c r="H27">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>8320.787280701756</v>
       </c>
       <c r="H28">
-        <v>0.206</v>
+        <v>0.208</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>28901.03728070176</v>
       </c>
       <c r="H29">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>20581.16228070176</v>
       </c>
       <c r="H30">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>857.7872807017557</v>
       </c>
       <c r="H31">
-        <v>0.451</v>
+        <v>0.456</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>28855.03728070176</v>
       </c>
       <c r="H32">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>-15430.83771929824</v>
       </c>
       <c r="H33">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>-24527.71271929824</v>
       </c>
       <c r="H34">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>-26100.71271929824</v>
       </c>
       <c r="H35">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>-27603.08771929824</v>
       </c>
       <c r="H36">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>-24936.46271929824</v>
       </c>
       <c r="H37">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>-24167.58771929824</v>
       </c>
       <c r="H38">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2336,7 +2336,7 @@
         <v>-22969.46271929824</v>
       </c>
       <c r="H39">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -2368,7 +2368,7 @@
         <v>-25324.46271929824</v>
       </c>
       <c r="H40">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>26539.16228070176</v>
       </c>
       <c r="H41">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>131.7872807017557</v>
       </c>
       <c r="H42">
-        <v>0.463</v>
+        <v>0.477</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>28291.91228070176</v>
       </c>
       <c r="H43">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2496,7 +2496,7 @@
         <v>-8663.462719298244</v>
       </c>
       <c r="H44">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>16127.28728070176</v>
       </c>
       <c r="H45">
-        <v>0.083</v>
+        <v>0.073</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>-213.9627192982443</v>
       </c>
       <c r="H46">
-        <v>0.48</v>
+        <v>0.491</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>-12437.46271929824</v>
       </c>
       <c r="H47">
-        <v>0.116</v>
+        <v>0.113</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>19642.41228070176</v>
       </c>
       <c r="H48">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>16809.41228070176</v>
       </c>
       <c r="H50">
-        <v>0.063</v>
+        <v>0.052</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>-23687.83771929824</v>
       </c>
       <c r="H51">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>-23469.71271929824</v>
       </c>
       <c r="H52">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <v>-10366.58771929824</v>
       </c>
       <c r="H54">
-        <v>0.158</v>
+        <v>0.174</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>-14239.83771929824</v>
       </c>
       <c r="H55">
-        <v>0.081</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>-12038.58771929824</v>
       </c>
       <c r="H56">
-        <v>0.121</v>
+        <v>0.139</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>-6359.712719298244</v>
       </c>
       <c r="H57">
-        <v>0.291</v>
+        <v>0.292</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>3486.912280701756</v>
       </c>
       <c r="H58">
-        <v>0.367</v>
+        <v>0.338</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>10486.41228070176</v>
       </c>
       <c r="H59">
-        <v>0.161</v>
+        <v>0.155</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>-19075.21271929824</v>
       </c>
       <c r="H60">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>-17482.08771929824</v>
       </c>
       <c r="H61">
-        <v>0.027</v>
+        <v>0.036</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>-21056.46271929824</v>
       </c>
       <c r="H62">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3104,7 +3104,7 @@
         <v>-15230.58771929824</v>
       </c>
       <c r="H63">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>-28095.08771929824</v>
       </c>
       <c r="H64">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>37901.53728070176</v>
       </c>
       <c r="H65">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3200,7 +3200,7 @@
         <v>41025.78728070176</v>
       </c>
       <c r="H66">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3232,7 +3232,7 @@
         <v>-4417.962719298244</v>
       </c>
       <c r="H67">
-        <v>0.347</v>
+        <v>0.384</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>12184.91228070176</v>
       </c>
       <c r="H68">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>22033.41228070176</v>
       </c>
       <c r="H69">
-        <v>0.021</v>
+        <v>0.035</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>28901.41228070176</v>
       </c>
       <c r="H70">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3360,7 +3360,7 @@
         <v>28645.66228070176</v>
       </c>
       <c r="H71">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>24509.41228070176</v>
       </c>
       <c r="H72">
-        <v>0.012</v>
+        <v>0.023</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3424,7 +3424,7 @@
         <v>-7135.837719298244</v>
       </c>
       <c r="H73">
-        <v>0.238</v>
+        <v>0.278</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>-13749.21271929824</v>
       </c>
       <c r="H74">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>-11203.83771929824</v>
       </c>
       <c r="H75">
-        <v>0.137</v>
+        <v>0.14</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>24482.78728070176</v>
       </c>
       <c r="H76">
-        <v>0.011</v>
+        <v>0.018</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -3584,7 +3584,7 @@
         <v>16869.03728070176</v>
       </c>
       <c r="H78">
-        <v>0.061</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>-7072.087719298244</v>
       </c>
       <c r="H79">
-        <v>0.252</v>
+        <v>0.287</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>-1357.962719298244</v>
       </c>
       <c r="H80">
-        <v>0.467</v>
+        <v>0.497</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>-4577.212719298244</v>
       </c>
       <c r="H81">
-        <v>0.333</v>
+        <v>0.377</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>-2393.462719298244</v>
       </c>
       <c r="H82">
-        <v>0.422</v>
+        <v>0.462</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>4756.162280701756</v>
       </c>
       <c r="H83">
-        <v>0.31</v>
+        <v>0.304</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>-15235.46271929824</v>
       </c>
       <c r="H84">
-        <v>0.057</v>
+        <v>0.062</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>36709.66228070176</v>
       </c>
       <c r="H85">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>21901.03728070176</v>
       </c>
       <c r="H86">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>-12198.46271929824</v>
       </c>
       <c r="H87">
-        <v>0.12</v>
+        <v>0.123</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>23327.53728070176</v>
       </c>
       <c r="H88">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>25350.28728070176</v>
       </c>
       <c r="H89">
-        <v>0.008999999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>-11418.83771929824</v>
       </c>
       <c r="H90">
-        <v>0.125</v>
+        <v>0.139</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>-19568.71271929824</v>
       </c>
       <c r="H91">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -4032,7 +4032,7 @@
         <v>7599.287280701756</v>
       </c>
       <c r="H92">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>24309.41228070176</v>
       </c>
       <c r="H93">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>3927.287280701756</v>
       </c>
       <c r="H94">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>-1515.712719298244</v>
       </c>
       <c r="H95">
-        <v>0.442</v>
+        <v>0.49</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>-7580.962719298244</v>
       </c>
       <c r="H97">
-        <v>0.223</v>
+        <v>0.24</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>5411.037280701756</v>
       </c>
       <c r="H98">
-        <v>0.276</v>
+        <v>0.295</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>17793.41228070176</v>
       </c>
       <c r="H99">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>-8833.837719298244</v>
       </c>
       <c r="H100">
-        <v>0.189</v>
+        <v>0.196</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>36826.66228070176</v>
       </c>
       <c r="H101">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>161.7872807017557</v>
       </c>
       <c r="H102">
-        <v>0.497</v>
+        <v>0.466</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>14028.53728070176</v>
       </c>
       <c r="H103">
-        <v>0.106</v>
+        <v>0.116</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>-15243.33771929824</v>
       </c>
       <c r="H104">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>-10765.83771929824</v>
       </c>
       <c r="H105">
-        <v>0.152</v>
+        <v>0.169</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>-22226.83771929824</v>
       </c>
       <c r="H106">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4512,7 +4512,7 @@
         <v>-19877.21271929824</v>
       </c>
       <c r="H107">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>18614.03728070176</v>
       </c>
       <c r="H108">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4576,7 +4576,7 @@
         <v>13549.28728070176</v>
       </c>
       <c r="H109">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>3724.912280701756</v>
       </c>
       <c r="H110">
-        <v>0.365</v>
+        <v>0.34</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>8003.162280701756</v>
       </c>
       <c r="H112">
-        <v>0.224</v>
+        <v>0.219</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>-13428.33771929824</v>
       </c>
       <c r="H113">
-        <v>0.083</v>
+        <v>0.106</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>-19852.96271929824</v>
       </c>
       <c r="H114">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4768,7 +4768,7 @@
         <v>-18556.96271929824</v>
       </c>
       <c r="H115">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="I115">
         <v>1</v>

--- a/Stage I cluster&spatial autocorrelation/pinyin.xlsx
+++ b/Stage I cluster&spatial autocorrelation/pinyin.xlsx
@@ -1152,7 +1152,7 @@
         <v>-12964.46271929824</v>
       </c>
       <c r="H2">
-        <v>0.104</v>
+        <v>0.09</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>-14432.71271929824</v>
       </c>
       <c r="H3">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39381.78728070176</v>
       </c>
       <c r="H4">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>31306.16228070176</v>
       </c>
       <c r="H5">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>-15246.96271929824</v>
       </c>
       <c r="H7">
-        <v>0.063</v>
+        <v>0.05</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>-7823.587719298244</v>
       </c>
       <c r="H8">
-        <v>0.237</v>
+        <v>0.216</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>-13550.08771929824</v>
       </c>
       <c r="H9">
-        <v>0.094</v>
+        <v>0.082</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>8634.037280701756</v>
       </c>
       <c r="H10">
-        <v>0.213</v>
+        <v>0.227</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>7931.412280701756</v>
       </c>
       <c r="H11">
-        <v>0.223</v>
+        <v>0.237</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>14843.41228070176</v>
       </c>
       <c r="H12">
-        <v>0.082</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>12898.91228070176</v>
       </c>
       <c r="H13">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>30558.41228070176</v>
       </c>
       <c r="H14">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>27600.53728070176</v>
       </c>
       <c r="H15">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>39913.41228070176</v>
       </c>
       <c r="H16">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>13440.28728070176</v>
       </c>
       <c r="H17">
-        <v>0.109</v>
+        <v>0.102</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>16071.91228070176</v>
       </c>
       <c r="H18">
-        <v>0.063</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>31046.53728070176</v>
       </c>
       <c r="H19">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>11360.53728070176</v>
       </c>
       <c r="H20">
-        <v>0.152</v>
+        <v>0.134</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>965.1622807017557</v>
       </c>
       <c r="H21">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>-11928.33771929824</v>
       </c>
       <c r="H22">
-        <v>0.141</v>
+        <v>0.099</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>-12364.21271929824</v>
       </c>
       <c r="H23">
-        <v>0.119</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>5396.787280701756</v>
       </c>
       <c r="H24">
-        <v>0.291</v>
+        <v>0.305</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>470.5372807017557</v>
       </c>
       <c r="H25">
-        <v>0.469</v>
+        <v>0.485</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>13552.16228070176</v>
       </c>
       <c r="H26">
-        <v>0.114</v>
+        <v>0.103</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>22835.91228070176</v>
       </c>
       <c r="H27">
-        <v>0.023</v>
+        <v>0.031</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>28901.03728070176</v>
       </c>
       <c r="H29">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>20581.16228070176</v>
       </c>
       <c r="H30">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>857.7872807017557</v>
       </c>
       <c r="H31">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>28855.03728070176</v>
       </c>
       <c r="H32">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2144,7 +2144,7 @@
         <v>-15430.83771929824</v>
       </c>
       <c r="H33">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>-24936.46271929824</v>
       </c>
       <c r="H37">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>-24167.58771929824</v>
       </c>
       <c r="H38">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2336,7 +2336,7 @@
         <v>-22969.46271929824</v>
       </c>
       <c r="H39">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -2368,7 +2368,7 @@
         <v>-25324.46271929824</v>
       </c>
       <c r="H40">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>26539.16228070176</v>
       </c>
       <c r="H41">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>131.7872807017557</v>
       </c>
       <c r="H42">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>28291.91228070176</v>
       </c>
       <c r="H43">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2496,7 +2496,7 @@
         <v>-8663.462719298244</v>
       </c>
       <c r="H44">
-        <v>0.225</v>
+        <v>0.197</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>16127.28728070176</v>
       </c>
       <c r="H45">
-        <v>0.073</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>-213.9627192982443</v>
       </c>
       <c r="H46">
-        <v>0.491</v>
+        <v>0.499</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>-12437.46271929824</v>
       </c>
       <c r="H47">
-        <v>0.113</v>
+        <v>0.097</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>19642.41228070176</v>
       </c>
       <c r="H48">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>24494.16228070176</v>
       </c>
       <c r="H49">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>16809.41228070176</v>
       </c>
       <c r="H50">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>-23687.83771929824</v>
       </c>
       <c r="H51">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>-23469.71271929824</v>
       </c>
       <c r="H52">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2784,7 +2784,7 @@
         <v>-21657.83771929824</v>
       </c>
       <c r="H53">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2816,7 +2816,7 @@
         <v>-10366.58771929824</v>
       </c>
       <c r="H54">
-        <v>0.174</v>
+        <v>0.147</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>-14239.83771929824</v>
       </c>
       <c r="H55">
-        <v>0.08500000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>-12038.58771929824</v>
       </c>
       <c r="H56">
-        <v>0.139</v>
+        <v>0.107</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>-6359.712719298244</v>
       </c>
       <c r="H57">
-        <v>0.292</v>
+        <v>0.276</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>3486.912280701756</v>
       </c>
       <c r="H58">
-        <v>0.338</v>
+        <v>0.371</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>10486.41228070176</v>
       </c>
       <c r="H59">
-        <v>0.155</v>
+        <v>0.163</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>-19075.21271929824</v>
       </c>
       <c r="H60">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>-17482.08771929824</v>
       </c>
       <c r="H61">
-        <v>0.036</v>
+        <v>0.031</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>-21056.46271929824</v>
       </c>
       <c r="H62">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3104,7 +3104,7 @@
         <v>-15230.58771929824</v>
       </c>
       <c r="H63">
-        <v>0.066</v>
+        <v>0.054</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>37901.53728070176</v>
       </c>
       <c r="H65">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3200,7 +3200,7 @@
         <v>41025.78728070176</v>
       </c>
       <c r="H66">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3232,7 +3232,7 @@
         <v>-4417.962719298244</v>
       </c>
       <c r="H67">
-        <v>0.384</v>
+        <v>0.33</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>12184.91228070176</v>
       </c>
       <c r="H68">
-        <v>0.133</v>
+        <v>0.131</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>22033.41228070176</v>
       </c>
       <c r="H69">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>28901.41228070176</v>
       </c>
       <c r="H70">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3360,7 +3360,7 @@
         <v>28645.66228070176</v>
       </c>
       <c r="H71">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>24509.41228070176</v>
       </c>
       <c r="H72">
-        <v>0.023</v>
+        <v>0.018</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3424,7 +3424,7 @@
         <v>-7135.837719298244</v>
       </c>
       <c r="H73">
-        <v>0.278</v>
+        <v>0.232</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>-13749.21271929824</v>
       </c>
       <c r="H74">
-        <v>0.089</v>
+        <v>0.078</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>-11203.83771929824</v>
       </c>
       <c r="H75">
-        <v>0.14</v>
+        <v>0.118</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>24482.78728070176</v>
       </c>
       <c r="H76">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -3584,7 +3584,7 @@
         <v>16869.03728070176</v>
       </c>
       <c r="H78">
-        <v>0.07099999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>-7072.087719298244</v>
       </c>
       <c r="H79">
-        <v>0.287</v>
+        <v>0.239</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>-1357.962719298244</v>
       </c>
       <c r="H80">
-        <v>0.497</v>
+        <v>0.483</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>-4577.212719298244</v>
       </c>
       <c r="H81">
-        <v>0.377</v>
+        <v>0.338</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>-2393.462719298244</v>
       </c>
       <c r="H82">
-        <v>0.462</v>
+        <v>0.431</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>4756.162280701756</v>
       </c>
       <c r="H83">
-        <v>0.304</v>
+        <v>0.322</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>-15235.46271929824</v>
       </c>
       <c r="H84">
-        <v>0.062</v>
+        <v>0.054</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>36709.66228070176</v>
       </c>
       <c r="H85">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>-12198.46271929824</v>
       </c>
       <c r="H87">
-        <v>0.123</v>
+        <v>0.097</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>23327.53728070176</v>
       </c>
       <c r="H88">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>25350.28728070176</v>
       </c>
       <c r="H89">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>-11418.83771929824</v>
       </c>
       <c r="H90">
-        <v>0.139</v>
+        <v>0.123</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>-19568.71271929824</v>
       </c>
       <c r="H91">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -4032,7 +4032,7 @@
         <v>7599.287280701756</v>
       </c>
       <c r="H92">
-        <v>0.226</v>
+        <v>0.229</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>24309.41228070176</v>
       </c>
       <c r="H93">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>3927.287280701756</v>
       </c>
       <c r="H94">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>-1515.712719298244</v>
       </c>
       <c r="H95">
-        <v>0.49</v>
+        <v>0.454</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>-20305.96271929824</v>
       </c>
       <c r="H96">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>-7580.962719298244</v>
       </c>
       <c r="H97">
-        <v>0.24</v>
+        <v>0.228</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>5411.037280701756</v>
       </c>
       <c r="H98">
-        <v>0.295</v>
+        <v>0.281</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>17793.41228070176</v>
       </c>
       <c r="H99">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>-8833.837719298244</v>
       </c>
       <c r="H100">
-        <v>0.196</v>
+        <v>0.185</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>36826.66228070176</v>
       </c>
       <c r="H101">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>161.7872807017557</v>
       </c>
       <c r="H102">
-        <v>0.466</v>
+        <v>0.485</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>14028.53728070176</v>
       </c>
       <c r="H103">
-        <v>0.116</v>
+        <v>0.104</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>-15243.33771929824</v>
       </c>
       <c r="H104">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>-10765.83771929824</v>
       </c>
       <c r="H105">
-        <v>0.169</v>
+        <v>0.145</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>-22226.83771929824</v>
       </c>
       <c r="H106">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4512,7 +4512,7 @@
         <v>-19877.21271929824</v>
       </c>
       <c r="H107">
-        <v>0.008</v>
+        <v>0.017</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>18614.03728070176</v>
       </c>
       <c r="H108">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4576,7 +4576,7 @@
         <v>13549.28728070176</v>
       </c>
       <c r="H109">
-        <v>0.115</v>
+        <v>0.103</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>3724.912280701756</v>
       </c>
       <c r="H110">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>27781.91228070176</v>
       </c>
       <c r="H111">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>8003.162280701756</v>
       </c>
       <c r="H112">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>-13428.33771929824</v>
       </c>
       <c r="H113">
-        <v>0.106</v>
+        <v>0.083</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>-19852.96271929824</v>
       </c>
       <c r="H114">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4768,7 +4768,7 @@
         <v>-18556.96271929824</v>
       </c>
       <c r="H115">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="I115">
         <v>1</v>
